--- a/public/Department.xlsx
+++ b/public/Department.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nepac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quang.tranthanh/Sites/quan-ly-lich-cong-tac-fe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51512C0C-1E2B-43B9-AD1B-DF22AF5E2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816DDBD-36EA-7642-A074-5D79526E07F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9420" xr2:uid="{620C01F5-2B41-48F8-8851-1818C826C7C7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{620C01F5-2B41-48F8-8851-1818C826C7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,15 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>name</t>
+    <t>ten_phong_ban</t>
   </si>
   <si>
-    <t>parent_id</t>
+    <t>phong_ban_cap_tren</t>
   </si>
   <si>
-    <t>nepack</t>
+    <t>Phòng quản lý vật tư</t>
+  </si>
+  <si>
+    <t>Khối văn phòng</t>
   </si>
 </sst>
 </file>
@@ -55,7 +57,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -420,12 +422,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,12 +439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
